--- a/English_proficiency.xlsx
+++ b/English_proficiency.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$351</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="80">
   <si>
     <t>Country of Birth</t>
   </si>
@@ -57,9 +60,6 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>China (excludes SARs and Taiwan) (b)</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -69,9 +69,6 @@
     <t>Inadequately described</t>
   </si>
   <si>
-    <t>Korea, Republic of (South)</t>
-  </si>
-  <si>
     <t>England</t>
   </si>
   <si>
@@ -147,27 +144,15 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>Australia (c)</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>Congo, Democratic Republic of</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
-    <t>Hong Kong (SAR of China)</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>The Former Yugoslav Republic of Macedonia</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
@@ -250,6 +235,38 @@
   </si>
   <si>
     <t>Not at all</t>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -598,13 +615,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H359" sqref="H359"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="47.25" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
   </cols>
@@ -622,409 +639,409 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>1615</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>205</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>786</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>334</v>
+        <v>70</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3594</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
-        <v>22736</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3666</v>
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>299</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>30770</v>
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12">
-        <v>693</v>
+      <c r="C12" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>86</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5661</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>277</v>
+        <v>69</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7216</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1">
-        <v>3058</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C16">
-        <v>103</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>374</v>
+      <c r="C17" s="1">
+        <v>1583</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>117</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3044</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6556</v>
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1278</v>
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7551</v>
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C23">
-        <v>79</v>
+        <v>840</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C24">
-        <v>740</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>335</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6080</v>
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>147</v>
+        <v>68</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1101</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
         <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1">
-        <v>4420</v>
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32">
-        <v>679</v>
+      <c r="C32" s="1">
+        <v>1470</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C34">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>46</v>
+        <v>70</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1700</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C36">
-        <v>245</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1">
-        <v>1581</v>
+      <c r="C37">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C38">
-        <v>190</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1032,417 +1049,417 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1">
-        <v>1111</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C40">
-        <v>243</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2000</v>
+        <v>71</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C43">
-        <v>253</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C44">
-        <v>598</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2237</v>
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4957</v>
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47">
-        <v>655</v>
+      <c r="C47" s="1">
+        <v>30770</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>137</v>
+        <v>68</v>
+      </c>
+      <c r="C48" s="1">
+        <v>22527</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>217</v>
+        <v>69</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1177</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1">
-        <v>1583</v>
+        <v>18509</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C51" s="1">
-        <v>4032</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>147</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>140</v>
+        <v>68</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1333</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1060</v>
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1716</v>
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3562</v>
+        <v>71</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57">
-        <v>686</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C58">
-        <v>365</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1001</v>
+        <v>69</v>
+      </c>
+      <c r="C59">
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1470</v>
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3629</v>
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>504</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>429</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1757</v>
+        <v>69</v>
+      </c>
+      <c r="C64">
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>531</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2733</v>
+        <v>71</v>
+      </c>
+      <c r="C66">
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67">
-        <v>982</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C68">
-        <v>352</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1416</v>
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C70">
-        <v>562</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2785</v>
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1565</v>
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>982</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C73" s="1">
-        <v>70374</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C74">
-        <v>39</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1721</v>
+        <v>70</v>
+      </c>
+      <c r="C75">
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="1">
-        <v>22527</v>
+        <v>71</v>
+      </c>
+      <c r="C76">
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1450,1965 +1467,1965 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1320</v>
+        <v>68</v>
+      </c>
+      <c r="C78">
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1632</v>
+        <v>69</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C80">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" s="1">
-        <v>15616</v>
+        <v>71</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C83" s="1">
-        <v>14657</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84">
-        <v>241</v>
+        <v>69</v>
+      </c>
+      <c r="C84" s="1">
+        <v>34387</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C85">
-        <v>485</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="1">
-        <v>10457</v>
+        <v>71</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>132</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="1">
-        <v>3607</v>
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" s="1">
-        <v>4176</v>
+        <v>69</v>
+      </c>
+      <c r="C89">
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90">
-        <v>299</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" s="1">
-        <v>2553</v>
+        <v>71</v>
+      </c>
+      <c r="C91">
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1">
-        <v>5661</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93">
-        <v>338</v>
+        <v>68</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1611</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C94">
-        <v>582</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C95">
-        <v>240</v>
+        <v>583</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" s="1">
-        <v>3556</v>
+        <v>71</v>
+      </c>
+      <c r="C96">
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>510</v>
+        <v>598</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C98" s="1">
-        <v>1577</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" s="1">
-        <v>7382</v>
+        <v>69</v>
+      </c>
+      <c r="C99">
+        <v>583</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C100">
-        <v>661</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" s="1">
-        <v>4233</v>
+        <v>71</v>
+      </c>
+      <c r="C101">
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>336</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C103" s="1">
-        <v>1692</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1201</v>
+        <v>69</v>
+      </c>
+      <c r="C104">
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C105">
-        <v>362</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
-      </c>
-      <c r="C106" s="1">
-        <v>4771</v>
+        <v>71</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>460</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
-      </c>
-      <c r="C108">
-        <v>643</v>
+        <v>68</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2469</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
-      </c>
-      <c r="C109" s="1">
-        <v>2300</v>
+        <v>69</v>
+      </c>
+      <c r="C109">
+        <v>999</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
-      </c>
-      <c r="C110" s="1">
-        <v>2124</v>
+        <v>70</v>
+      </c>
+      <c r="C110">
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
-      </c>
-      <c r="C111" s="1">
-        <v>1289</v>
+        <v>71</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
-      </c>
-      <c r="C112" s="1">
-        <v>1275</v>
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C113">
-        <v>901</v>
+        <v>509</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C114">
-        <v>855</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
-      </c>
-      <c r="C115" s="1">
-        <v>3044</v>
+        <v>70</v>
+      </c>
+      <c r="C115">
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
-      </c>
-      <c r="C116" s="1">
-        <v>2514</v>
+        <v>71</v>
+      </c>
+      <c r="C116">
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
-      </c>
-      <c r="C117">
-        <v>657</v>
+        <v>4</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2237</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B118" t="s">
-        <v>74</v>
-      </c>
-      <c r="C118">
-        <v>734</v>
+        <v>68</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2124</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C119">
-        <v>653</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B120" t="s">
-        <v>74</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2533</v>
+        <v>70</v>
+      </c>
+      <c r="C120">
+        <v>508</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B121" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C121">
-        <v>548</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>867</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C123">
-        <v>434</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B124" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C124">
-        <v>509</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C125">
-        <v>642</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>74</v>
-      </c>
-      <c r="C126" s="1">
-        <v>4430</v>
+        <v>71</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>686</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C128">
-        <v>784</v>
+        <v>548</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>74</v>
-      </c>
-      <c r="C129" s="1">
-        <v>1024</v>
+        <v>69</v>
+      </c>
+      <c r="C129">
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>74</v>
-      </c>
-      <c r="C130" s="1">
-        <v>1611</v>
+        <v>70</v>
+      </c>
+      <c r="C130">
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2469</v>
+        <v>71</v>
+      </c>
+      <c r="C131">
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C132">
-        <v>840</v>
+        <v>4</v>
+      </c>
+      <c r="C132" s="1">
+        <v>22736</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C133" s="1">
-        <v>1346</v>
+        <v>70374</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C134" s="1">
-        <v>1333</v>
+        <v>10716</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C135" s="1">
-        <v>2421</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>74</v>
-      </c>
-      <c r="C136" s="1">
-        <v>2638</v>
+        <v>71</v>
+      </c>
+      <c r="C136">
+        <v>556</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B137" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C137" s="1">
-        <v>2027</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B138" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C138" s="1">
-        <v>1222</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B139" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C139">
-        <v>476</v>
+        <v>996</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B140" t="s">
-        <v>74</v>
-      </c>
-      <c r="C140" s="1">
-        <v>2779</v>
+        <v>70</v>
+      </c>
+      <c r="C140">
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B141" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" s="1">
-        <v>1101</v>
+        <v>71</v>
+      </c>
+      <c r="C141">
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
-      </c>
-      <c r="C142">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3629</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C143" s="1">
-        <v>10716</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>75</v>
-      </c>
-      <c r="C144" s="1">
-        <v>1177</v>
+        <v>69</v>
+      </c>
+      <c r="C144">
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B145" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C145" s="1">
-        <v>34387</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B146" t="s">
-        <v>75</v>
-      </c>
-      <c r="C146" s="1">
-        <v>2936</v>
+        <v>71</v>
+      </c>
+      <c r="C146">
+        <v>216</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C147" s="1">
-        <v>3966</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B148" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C148" s="1">
-        <v>5144</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C149">
-        <v>443</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B150" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C150" s="1">
-        <v>7216</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B151" t="s">
-        <v>75</v>
-      </c>
-      <c r="C151">
-        <v>228</v>
+        <v>71</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1507</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>192</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B153" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C153">
-        <v>612</v>
+        <v>434</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
-      </c>
-      <c r="C154">
-        <v>296</v>
+        <v>69</v>
+      </c>
+      <c r="C154" s="1">
+        <v>4897</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B155" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C155">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B156" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C156">
-        <v>996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B157" t="s">
-        <v>75</v>
-      </c>
-      <c r="C157" s="1">
-        <v>1028</v>
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C158" s="1">
-        <v>2837</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C159">
-        <v>557</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
-      </c>
-      <c r="C160" s="1">
-        <v>1347</v>
+        <v>70</v>
+      </c>
+      <c r="C160">
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B161" t="s">
-        <v>75</v>
-      </c>
-      <c r="C161" s="1">
-        <v>5790</v>
+        <v>71</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>75</v>
-      </c>
-      <c r="C162" s="1">
-        <v>4897</v>
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B163" t="s">
-        <v>75</v>
-      </c>
-      <c r="C163">
-        <v>301</v>
+        <v>68</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1222</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B164" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C164">
-        <v>362</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C165">
-        <v>256</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B166" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C166">
-        <v>139</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B167" t="s">
-        <v>75</v>
-      </c>
-      <c r="C167">
-        <v>149</v>
+        <v>4</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1416</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C168">
-        <v>290</v>
+        <v>68</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1692</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B169" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C169">
-        <v>525</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B170" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C170">
-        <v>161</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B171" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C171">
-        <v>583</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C172">
-        <v>445</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B173" t="s">
-        <v>75</v>
-      </c>
-      <c r="C173">
-        <v>999</v>
+        <v>68</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1577</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B174" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C174">
-        <v>181</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>75</v>
-      </c>
-      <c r="C175" s="1">
-        <v>1212</v>
+        <v>70</v>
+      </c>
+      <c r="C175">
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B176" t="s">
-        <v>75</v>
-      </c>
-      <c r="C176" s="1">
-        <v>2564</v>
+        <v>71</v>
+      </c>
+      <c r="C176">
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B177" t="s">
-        <v>75</v>
-      </c>
-      <c r="C177">
-        <v>316</v>
+        <v>68</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2514</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B178" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C178">
-        <v>112</v>
+        <v>557</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B179" t="s">
-        <v>75</v>
-      </c>
-      <c r="C179">
-        <v>125</v>
+        <v>70</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1455</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C180">
-        <v>264</v>
+        <v>94</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>75</v>
-      </c>
-      <c r="C181" s="1">
-        <v>1817</v>
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>86</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C182">
-        <v>473</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C183">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C184">
-        <v>431</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C185">
-        <v>262</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>75</v>
-      </c>
-      <c r="C186">
-        <v>189</v>
+        <v>4</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1615</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>75</v>
-      </c>
-      <c r="C187">
-        <v>99</v>
+        <v>68</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1320</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C188">
-        <v>64</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C189">
-        <v>738</v>
+        <v>847</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C190">
-        <v>66</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>75</v>
-      </c>
-      <c r="C191">
-        <v>203</v>
+        <v>4</v>
+      </c>
+      <c r="C191" s="1">
+        <v>4420</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B192" t="s">
-        <v>75</v>
-      </c>
-      <c r="C192">
-        <v>200</v>
+        <v>68</v>
+      </c>
+      <c r="C192" s="1">
+        <v>10457</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B193" t="s">
-        <v>75</v>
-      </c>
-      <c r="C193">
-        <v>253</v>
+        <v>69</v>
+      </c>
+      <c r="C193" s="1">
+        <v>5144</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B194" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C194">
-        <v>177</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B195" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C195">
-        <v>100</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B196" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C196">
-        <v>189</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B197" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C197">
-        <v>50</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B198" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C198">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B199" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C199">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B200" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C200">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C201">
-        <v>67</v>
+        <v>786</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>75</v>
-      </c>
-      <c r="C202">
-        <v>104</v>
+        <v>68</v>
+      </c>
+      <c r="C202" s="1">
+        <v>2779</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C203">
-        <v>40</v>
+        <v>525</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>70</v>
+      </c>
+      <c r="C204">
         <v>45</v>
-      </c>
-      <c r="B204" t="s">
-        <v>75</v>
-      </c>
-      <c r="C204">
-        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C205">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C206">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="C206" s="1">
+        <v>2733</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B207" t="s">
-        <v>75</v>
-      </c>
-      <c r="C207">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1201</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B208" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C208">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B209" t="s">
-        <v>75</v>
-      </c>
-      <c r="C209">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="C209" s="1">
+        <v>3836</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B210" t="s">
-        <v>75</v>
-      </c>
-      <c r="C210">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1497</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B211" t="s">
-        <v>75</v>
-      </c>
-      <c r="C211">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1716</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B212" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C212" s="1">
-        <v>2879</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B213" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C213">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B214" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B215" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C215">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C216">
-        <v>119</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C217">
-        <v>215</v>
+        <v>653</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>76</v>
-      </c>
-      <c r="C218">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1817</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C219">
-        <v>375</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C220">
-        <v>253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B221" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C221">
-        <v>361</v>
+        <v>655</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B222" t="s">
-        <v>76</v>
-      </c>
-      <c r="C222">
-        <v>265</v>
+        <v>4</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1278</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>76</v>
-      </c>
-      <c r="C223">
-        <v>455</v>
+        <v>68</v>
+      </c>
+      <c r="C223" s="1">
+        <v>2027</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C224" s="1">
-        <v>3836</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B225" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C225">
-        <v>214</v>
+        <v>775</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B226" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C226">
-        <v>583</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B227" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C227" s="1">
-        <v>1402</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B228" t="s">
-        <v>76</v>
-      </c>
-      <c r="C228">
-        <v>336</v>
+        <v>68</v>
+      </c>
+      <c r="C228" s="1">
+        <v>7382</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B229" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C229">
-        <v>260</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B230" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C230">
-        <v>45</v>
+        <v>930</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B231" t="s">
-        <v>76</v>
-      </c>
-      <c r="C231" s="1">
-        <v>1700</v>
+        <v>71</v>
+      </c>
+      <c r="C231">
+        <v>258</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B232" t="s">
-        <v>76</v>
-      </c>
-      <c r="C232">
-        <v>930</v>
+        <v>4</v>
+      </c>
+      <c r="C232" s="1">
+        <v>6080</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B233" t="s">
-        <v>76</v>
-      </c>
-      <c r="C233">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="C233" s="1">
+        <v>14657</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B234" t="s">
-        <v>76</v>
-      </c>
-      <c r="C234">
-        <v>7</v>
+        <v>69</v>
+      </c>
+      <c r="C234" s="1">
+        <v>3966</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B235" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C235">
-        <v>19</v>
+        <v>407</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B236" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C236">
-        <v>141</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B237" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C237">
-        <v>701</v>
+        <v>325</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B238" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C238">
-        <v>360</v>
+        <v>784</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B239" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C239">
-        <v>972</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B240" t="s">
-        <v>76</v>
-      </c>
-      <c r="C240" s="1">
-        <v>3459</v>
+        <v>70</v>
+      </c>
+      <c r="C240">
+        <v>138</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B241" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C241">
-        <v>228</v>
+        <v>36</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B242" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C242">
-        <v>775</v>
+        <v>335</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B243" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C243">
-        <v>40</v>
+        <v>734</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B244" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C244">
-        <v>375</v>
+        <v>177</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B245" t="s">
-        <v>76</v>
-      </c>
-      <c r="C245" s="1">
-        <v>3594</v>
+        <v>70</v>
+      </c>
+      <c r="C245">
+        <v>99</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B246" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C246">
-        <v>508</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B247" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C247">
-        <v>78</v>
+        <v>679</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B248" t="s">
-        <v>76</v>
-      </c>
-      <c r="C248">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1346</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B249" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C249">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B250" t="s">
-        <v>76</v>
-      </c>
-      <c r="C250" s="1">
-        <v>1159</v>
+        <v>70</v>
+      </c>
+      <c r="C250">
+        <v>260</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B251" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C251">
-        <v>706</v>
+        <v>92</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B252" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C252">
-        <v>370</v>
+        <v>140</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B253" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C253">
-        <v>138</v>
+        <v>661</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B254" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C254">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B255" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C255">
         <v>45</v>
@@ -3416,560 +3433,560 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B256" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C256">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B257" t="s">
-        <v>76</v>
-      </c>
-      <c r="C257" s="1">
-        <v>6940</v>
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>299</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B258" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C258">
-        <v>99</v>
+        <v>643</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B259" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C259">
-        <v>123</v>
+        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B260" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C260">
-        <v>704</v>
+        <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B261" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C261">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B262" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C262">
-        <v>14</v>
+        <v>693</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B263" t="s">
-        <v>76</v>
-      </c>
-      <c r="C263">
-        <v>181</v>
+        <v>68</v>
+      </c>
+      <c r="C263" s="1">
+        <v>4430</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B264" t="s">
-        <v>76</v>
-      </c>
-      <c r="C264">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="C264" s="1">
+        <v>2837</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B265" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C265">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C266">
-        <v>407</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B267" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C267">
-        <v>26</v>
+        <v>686</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B268" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C268">
-        <v>173</v>
+        <v>686</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B269" t="s">
-        <v>76</v>
-      </c>
-      <c r="C269" s="1">
-        <v>1096</v>
+        <v>69</v>
+      </c>
+      <c r="C269">
+        <v>64</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B270" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C270">
-        <v>40</v>
+        <v>336</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B271" t="s">
-        <v>76</v>
-      </c>
-      <c r="C271" s="1">
-        <v>1455</v>
+        <v>71</v>
+      </c>
+      <c r="C271">
+        <v>33</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B272" t="s">
-        <v>76</v>
-      </c>
-      <c r="C272">
-        <v>847</v>
+        <v>4</v>
+      </c>
+      <c r="C272" s="1">
+        <v>3058</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B273" t="s">
-        <v>76</v>
-      </c>
-      <c r="C273">
-        <v>149</v>
+        <v>4</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1001</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B274" t="s">
-        <v>76</v>
-      </c>
-      <c r="C274">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1289</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B275" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C275">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B276" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C276">
-        <v>66</v>
+        <v>370</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B277" t="s">
-        <v>76</v>
-      </c>
-      <c r="C277" s="1">
-        <v>18509</v>
+        <v>71</v>
+      </c>
+      <c r="C277">
+        <v>46</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B278" t="s">
-        <v>76</v>
-      </c>
-      <c r="C278">
-        <v>247</v>
+        <v>4</v>
+      </c>
+      <c r="C278" s="1">
+        <v>7551</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B279" t="s">
-        <v>76</v>
-      </c>
-      <c r="C279">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="C279" s="1">
+        <v>15616</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B280" t="s">
-        <v>76</v>
-      </c>
-      <c r="C280">
-        <v>7</v>
+        <v>69</v>
+      </c>
+      <c r="C280" s="1">
+        <v>2936</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B281" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C281" s="1">
-        <v>1398</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B282" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C282">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B283" t="s">
-        <v>77</v>
-      </c>
-      <c r="C283">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C283" s="1">
+        <v>1581</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B284" t="s">
-        <v>77</v>
-      </c>
-      <c r="C284">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="C284" s="1">
+        <v>2638</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B285" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C285">
-        <v>46</v>
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B286" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C286">
-        <v>132</v>
+        <v>706</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B287" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C287">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B288" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C288">
-        <v>81</v>
+        <v>740</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B289" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C289">
-        <v>33</v>
+        <v>485</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B290" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C290">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B291" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C291">
-        <v>17</v>
+        <v>701</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B292" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C292">
-        <v>484</v>
+        <v>391</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B293" t="s">
-        <v>77</v>
-      </c>
-      <c r="C293">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="C293" s="1">
+        <v>1111</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B294" t="s">
-        <v>77</v>
-      </c>
-      <c r="C294">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="C294" s="1">
+        <v>1024</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B295" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C295">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B296" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C296">
-        <v>178</v>
+        <v>375</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B297" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C297">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B298" t="s">
-        <v>77</v>
-      </c>
-      <c r="C298">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C298" s="1">
+        <v>3666</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B299" t="s">
-        <v>77</v>
-      </c>
-      <c r="C299">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="C299" s="1">
+        <v>2300</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B300" t="s">
-        <v>77</v>
-      </c>
-      <c r="C300">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="C300" s="1">
+        <v>1028</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B301" t="s">
-        <v>77</v>
-      </c>
-      <c r="C301">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="C301" s="1">
+        <v>1398</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C302">
-        <v>72</v>
+        <v>185</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B303" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C303">
-        <v>33</v>
+        <v>657</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B304" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C304">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B305" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C305">
-        <v>3</v>
+        <v>360</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B306" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C306">
         <v>59</v>
@@ -3977,123 +3994,123 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B307" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C307">
-        <v>6</v>
+        <v>147</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B308" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C308">
-        <v>556</v>
+        <v>132</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B309" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C309">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B310" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C310">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B311" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C311">
-        <v>233</v>
+        <v>64</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B312" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C312">
-        <v>33</v>
+        <v>117</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B313" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C313">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B314" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C314">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B315" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C315">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B316" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C316">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B317" t="s">
-        <v>77</v>
-      </c>
-      <c r="C317">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1060</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4101,376 +4118,381 @@
         <v>50</v>
       </c>
       <c r="B318" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C318">
-        <v>8</v>
+        <v>855</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B319" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C319">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B320" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C320">
-        <v>474</v>
+        <v>972</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B321" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C321">
-        <v>79</v>
+        <v>178</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B322" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C322">
-        <v>64</v>
+        <v>374</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B323" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C323">
-        <v>185</v>
+        <v>582</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B324" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C324">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B325" t="s">
-        <v>77</v>
-      </c>
-      <c r="C325" s="1">
-        <v>1953</v>
+        <v>70</v>
+      </c>
+      <c r="C325">
+        <v>181</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B326" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C326">
-        <v>258</v>
+        <v>59</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B327" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C327">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B328" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C328">
-        <v>17</v>
+        <v>867</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B329" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C329">
-        <v>13</v>
+        <v>738</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B330" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C330">
-        <v>157</v>
+        <v>40</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B331" t="s">
-        <v>77</v>
-      </c>
-      <c r="C331" s="1">
-        <v>1497</v>
+        <v>71</v>
+      </c>
+      <c r="C331">
+        <v>17</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B332" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B333" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C333">
-        <v>54</v>
+        <v>901</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B334" t="s">
-        <v>77</v>
-      </c>
-      <c r="C334">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="C334" s="1">
+        <v>5790</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
+        <v>29</v>
+      </c>
+      <c r="B335" t="s">
+        <v>70</v>
+      </c>
+      <c r="C335">
         <v>28</v>
-      </c>
-      <c r="B335" t="s">
-        <v>77</v>
-      </c>
-      <c r="C335">
-        <v>32</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B336" t="s">
-        <v>77</v>
-      </c>
-      <c r="C336" s="1">
-        <v>1507</v>
+        <v>71</v>
+      </c>
+      <c r="C336">
+        <v>6</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B337" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C337">
-        <v>4</v>
+        <v>137</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B338" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C338">
-        <v>6</v>
+        <v>510</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
+        <v>44</v>
+      </c>
+      <c r="B339" t="s">
+        <v>69</v>
+      </c>
+      <c r="C339">
         <v>40</v>
-      </c>
-      <c r="B339" t="s">
-        <v>77</v>
-      </c>
-      <c r="C339">
-        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B340" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C340">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B341" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C341">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B342" t="s">
-        <v>77</v>
-      </c>
-      <c r="C342">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C342" s="1">
+        <v>6556</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B343" t="s">
-        <v>77</v>
-      </c>
-      <c r="C343">
-        <v>391</v>
+        <v>68</v>
+      </c>
+      <c r="C343" s="1">
+        <v>3607</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B344" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C344">
-        <v>152</v>
+        <v>443</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B345" t="s">
-        <v>77</v>
-      </c>
-      <c r="C345">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="C345" s="1">
+        <v>6940</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B346" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C346" s="1">
-        <v>1225</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B347" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C347">
-        <v>3</v>
+        <v>141</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B348" t="s">
-        <v>77</v>
-      </c>
-      <c r="C348">
-        <v>216</v>
+        <v>68</v>
+      </c>
+      <c r="C348" s="1">
+        <v>1721</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B349" t="s">
-        <v>77</v>
-      </c>
-      <c r="C349">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="C349" s="1">
+        <v>1212</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B350" t="s">
-        <v>77</v>
-      </c>
-      <c r="C350" s="1">
-        <v>7561</v>
+        <v>70</v>
+      </c>
+      <c r="C350">
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B351" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C351">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C351">
+    <sortState ref="A2:C351">
+      <sortCondition ref="A1:A351"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
